--- a/report/No1_KJBM010_テスト結果.xlsx
+++ b/report/No1_KJBM010_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B941501-9B7C-47CD-AE15-3120A1695C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4963DD-2B81-42B0-830F-382D523F7920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>結果</t>
   </si>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.KJBM010.txtファイルに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.テストケース2実行した後に以下の結果になっていることを確認する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,24 +65,6 @@
     <t>受注チェックファイルの年上２桁に00が反映されている</t>
   </si>
   <si>
-    <t>■KJBM010.txtファイルの中身をわかりやすいようにサクラエディタで表示したもの</t>
-    <rPh sb="17" eb="19">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■KJBM020.txtファイルの中身をわかりやすいようにサクラエディタで表示したもの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.テストケース2実行した後に以下の結果になっていることを確認する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受注データの年下２桁が受注チェックファイルの年下２桁に反映されている 値20</t>
   </si>
   <si>
@@ -203,48 +181,11 @@
     <t>例：export OTF=KJBM020.txt</t>
   </si>
   <si>
-    <t>■KJBM010.txtのレイアウトとしてKJCF010のレイアウト資料を添付</t>
-    <rPh sb="34" eb="36">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■KJBM020.txtのレイアウトとしてKJCF010のレイアウト資料を添付</t>
-    <rPh sb="34" eb="36">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■KJCF010.txtの中身</t>
-    <rPh sb="13" eb="15">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■KJCF020.txtの中身</t>
-    <rPh sb="13" eb="15">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>18.テストケース2実行した後に以下の結果になっていることを確認する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>エラーが出ない　例ABENDがコンソールに出力されないなど</t>
-  </si>
-  <si>
-    <t>受注チェックファイルの注文番号がAAAAという英字になっている</t>
   </si>
   <si>
     <t>19.テストケース18実行後エラーが出ない</t>
@@ -343,12 +284,6 @@
     <t>今回の場合は</t>
   </si>
   <si>
-    <t>KJBM010 ITF=               1</t>
-  </si>
-  <si>
-    <t>KJBM010 OTF=              1</t>
-  </si>
-  <si>
     <t>がテスト結果3の結果と一緒に表示されればよい</t>
   </si>
   <si>
@@ -426,17 +361,7 @@
     <t>KJBM020.txtに</t>
   </si>
   <si>
-    <t>1111100202020AAAA0000100300</t>
-  </si>
-  <si>
-    <t>末尾スペース4個</t>
-  </si>
-  <si>
     <t>が一列で出力される</t>
-  </si>
-  <si>
-    <t>スペース53個0000000000000000</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>環境変数でOTFにKJBM020.txtが設定されている状態</t>
@@ -459,12 +384,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見やすいようにサクラエディタで改行をいれた</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
+    <t>■テストデータに使うKJBM010.txt</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイギョウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.KJBM010.txtファイルに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注チェックファイルの注文番号がBBBBという英字になっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KJBM010 ITF=               2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KJBM010 OTF=              2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A BBBB CCCCCC DDDD EEEEE FFFFF(末尾スペース20個)</t>
+    <rPh sb="31" eb="33">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1111100202020AAAA0000100300スペース53個0000000000000000スペース4つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABBBB00CCCCCCDDDDEEEEEFFFFFスペース53個0000000000000000スペース4つ</t>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +477,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -555,10 +523,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -581,22 +547,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>26791</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676848</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869BEA09-8F1D-49AE-B3A1-A69949A780D0}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9B20EE-090F-40D5-A80B-5C6FB19653C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -618,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="1562100"/>
-          <a:ext cx="8246866" cy="5648325"/>
+          <a:off x="685800" y="1543050"/>
+          <a:ext cx="4105848" cy="1238423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -628,25 +594,80 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>6063</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>216088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26E325A-7D3F-4B73-8AFD-B6004D1C6559}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C3BBF6-1312-4476-8AC1-1FD93CB92DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275725" y="1233237"/>
+          <a:ext cx="6006284" cy="746959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>192338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92022DAC-C005-46F7-96CD-3FBB87F7549C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -668,40 +689,201 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="7734300"/>
-          <a:ext cx="8226138" cy="8334375"/>
+          <a:off x="275724" y="2085474"/>
+          <a:ext cx="5982535" cy="828791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220579</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225593</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7C89E2-7C60-43DB-9CDD-38C8B79474D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1874921" y="2997868"/>
+          <a:ext cx="5014" cy="431132"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>260684</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F2C7F7-2EB3-4D05-A07E-2BCBFF774EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275724" y="3449053"/>
+          <a:ext cx="6050881" cy="728224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C06050-DE8B-41D3-988D-30ADA4A432AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4229100" y="2324100"/>
+          <a:ext cx="2066925" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>216088</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>65170</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C3BBF6-1312-4476-8AC1-1FD93CB92DBF}"/>
+        <xdr:cNvPr id="181" name="図 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A22D2F9-2F46-47B9-A368-CC976DCC9093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -723,8 +905,608 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275725" y="1233237"/>
-          <a:ext cx="6006284" cy="746959"/>
+          <a:off x="683172" y="30099000"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="図 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4086DAE0-5DEA-40D0-8247-673679FC4826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="28561862"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="図 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03608AFC-E73C-44D7-9A16-71DE00D70C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="26853931"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="図 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2338E011-CC02-47EA-BCF7-31B4A46E2CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="25146000"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="図 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B21590-1C64-4BA1-B169-8DE44426B7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="23438069"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="図 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A6C485-E684-4CA1-8431-E34AF81D0BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="21730138"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="図 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A593DB-86EC-447A-BE88-A87C4E0437A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="20022207"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="図 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C629FD-9383-4AF0-9221-5BE30FF1A41A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="18314276"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="図 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0F14E1-013C-407E-B44C-E8070BE46FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="16606345"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="図 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724D8795-14EE-4462-82DE-6A790BE62E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="14898414"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="図 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15221FFB-8FCA-4347-810B-068E85A76E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="13019690"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="図 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099CAF9B-1964-494D-9FE5-84FA30EB7689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="11311759"/>
+          <a:ext cx="7254328" cy="1133836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>683172</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465443</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>127928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="図 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30982FB0-F104-4D4D-80F2-4F769DEB5C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683172" y="9603828"/>
+          <a:ext cx="7297168" cy="1152686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,21 +1519,171 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>192338</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147002</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92022DAC-C005-46F7-96CD-3FBB87F7549C}"/>
+        <xdr:cNvPr id="163" name="図 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DDB6C9-5086-409C-904A-38D5D55BA227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="8208065"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="図 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF029F96-EB1B-4CBB-890D-C07EC0DB0DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="6294783"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422603</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="図 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D69105C-0DF2-460C-93F7-2DF6AF6058F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="4381500"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CA8773-3BE0-49FB-A7A2-94FE2E3E51AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,8 +1705,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275724" y="2085474"/>
-          <a:ext cx="5982535" cy="828791"/>
+          <a:off x="685800" y="2952750"/>
+          <a:ext cx="5906324" cy="790685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,23 +1717,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220579</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>225593</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>150395</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605089</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7C89E2-7C60-43DB-9CDD-38C8B79474D0}"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1CA2C-C717-4E2B-855F-DB0C0A1B3CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,8 +1741,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1874921" y="2997868"/>
-          <a:ext cx="5014" cy="431132"/>
+          <a:off x="1285875" y="3867150"/>
+          <a:ext cx="5014" cy="433138"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -839,84 +1771,34 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>260684</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F2C7F7-2EB3-4D05-A07E-2BCBFF774EFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="275724" y="3449053"/>
-          <a:ext cx="6050881" cy="728224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>168513</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291473</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C06050-DE8B-41D3-988D-30ADA4A432AC}"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFE048F-1B58-47CA-8E27-A55D78494C19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4229100" y="2324100"/>
-          <a:ext cx="2066925" cy="9526"/>
+        <a:xfrm>
+          <a:off x="855970" y="5352335"/>
+          <a:ext cx="122960" cy="4329"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -944,139 +1826,34 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400584</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57278</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8289F3F-5992-45A4-8D03-32F2DA445462}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1752600"/>
-          <a:ext cx="3829584" cy="914528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10388</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123962</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC60A764-832C-4A1A-A30D-94954ED4D895}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2781300"/>
-          <a:ext cx="6182588" cy="981212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605089</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147388</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>634026</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>4659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635230</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1CA2C-C717-4E2B-855F-DB0C0A1B3CB5}"/>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF599E1-A81C-4943-80BE-86D695D2DD2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285875" y="3867150"/>
-          <a:ext cx="5014" cy="433138"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2683543" y="20880831"/>
+          <a:ext cx="1204" cy="242527"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1105,92 +1882,43 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>921</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5923</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DADAA2-EF31-4309-A79C-62895F2AA9EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684989" y="4364182"/>
-          <a:ext cx="7529752" cy="942109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>675408</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116898</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142869</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>164316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144073</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>65256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFE048F-1B58-47CA-8E27-A55D78494C19}"/>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7569D765-C16E-4D6E-974F-CD444FE73358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="675408" y="4654262"/>
-          <a:ext cx="121228" cy="4329"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2875559" y="20869695"/>
+          <a:ext cx="1204" cy="242527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1210,1170 +1938,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C478A8-8747-4B55-A96C-720AFDC38F2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="6250781"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>77390</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41591EF-4C5C-4118-9E0C-7AD487B9A92E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="761999" y="6536531"/>
-          <a:ext cx="279798" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491FF703-3923-4684-A8C8-219343239DAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="8149828"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>136922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>136922</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA19B43-1D4F-4217-9FD9-FEE89B45D019}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1041797" y="8459391"/>
-          <a:ext cx="166687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400584</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57278</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ED9C37-4BC3-480A-A3B1-429CCA85FBB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8899922" y="517922"/>
-          <a:ext cx="3823631" cy="920481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>5003</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840529DB-F915-4204-861A-AC2AFD255381}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8899922" y="1762125"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8A8C84-3315-4438-9F73-5A952FC605C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="9703594"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>648891</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>113110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>113110</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44B6BDA-33D2-4563-A40B-20A069D17B18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="9989344"/>
-          <a:ext cx="166687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F203EBF-3D14-4AEB-90E2-3508930BBD6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="11430000"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>125015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>125015</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9DE2E5-ADB1-4E56-81C4-4C0E940807B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1464469" y="11727656"/>
-          <a:ext cx="166687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A691FE-961C-4DC3-A5B1-F87821D0EE3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="13156406"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD0EE0-E966-46E1-9D33-7FBFC10B3610}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1488281" y="13460015"/>
-          <a:ext cx="166687" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E4D0EB-B090-47B9-9FBC-4EBE095F453A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="14710172"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>232172</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D519D85-0AA9-489C-9FBA-4468EDCA950B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1601391" y="15001875"/>
-          <a:ext cx="315515" cy="5954"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AF075D-CF56-448D-9353-AA919B9B8E1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="16263938"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>535782</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AF4DFC-2027-4CB2-A9F6-A58700DE82EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905001" y="16555641"/>
-          <a:ext cx="363140" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9B528E-EB44-439D-AFAB-1A2F97FEB51D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="17817703"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>208359</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>125016</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58082F26-34C6-4CF4-8D5F-1E61D8E48745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2262187" y="18115360"/>
-          <a:ext cx="363140" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5002</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B036A7-996A-4299-82C6-25143CDF7AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="19371469"/>
-          <a:ext cx="7535706" cy="939404"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595564</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF599E1-A81C-4943-80BE-86D695D2DD2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2651760" y="19404330"/>
-          <a:ext cx="1204" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>119314</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7569D765-C16E-4D6E-974F-CD444FE73358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2861310" y="19400520"/>
-          <a:ext cx="1204" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0FCA66-9781-42FD-B670-57FC8C7805FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="20783550"/>
-          <a:ext cx="7549993" cy="933451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>156363</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>120011</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>149207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2387,9 +1963,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2880360" y="20981670"/>
-          <a:ext cx="697230" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2889053" y="22557828"/>
+          <a:ext cx="646820" cy="4689"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2419,68 +1995,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C281B079-D161-406F-8344-3E4011CE7A3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="22326600"/>
-          <a:ext cx="7549993" cy="933451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>139080</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>146156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>151087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2494,9 +2020,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3596640" y="22536150"/>
-          <a:ext cx="1413510" cy="3810"/>
+        <a:xfrm>
+          <a:off x="3554942" y="24267397"/>
+          <a:ext cx="1319230" cy="4931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2526,25 +2052,799 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17936</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>90595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500669</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>92252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FCD069-E6AE-43FA-A78D-400354FE1D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6166488" y="27798492"/>
+          <a:ext cx="482733" cy="1657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>501664</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>92250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409562</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>93741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FA1496-3DF4-4711-ACA1-BC39F90A4253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6650216" y="29508078"/>
+          <a:ext cx="591070" cy="1491"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ACB377-355D-4A8F-BE19-05FFA6DB6CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3133726"/>
+          <a:ext cx="2200275" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280328</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523716</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0FB69A-3778-46B7-BB50-DD93DA3EB01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="967785" y="7247920"/>
+          <a:ext cx="243388" cy="1133"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647718</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>111543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127337</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>117736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E32283-FE39-4534-A513-9C8D7FCF90F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1330890" y="10569336"/>
+          <a:ext cx="162792" cy="6193"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>512241</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D681F2ED-201A-4E80-B129-A6A413027B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1199698" y="9152282"/>
+          <a:ext cx="158650" cy="1771"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111083</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224355</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>92594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C80477-66AF-4AE9-BE8C-0A0895844451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1477428" y="12257184"/>
+          <a:ext cx="113272" cy="1134"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>239767</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>90703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>356997</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>90703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C972784-3271-4154-B564-800FF36EDF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1606112" y="13964358"/>
+          <a:ext cx="117230" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>375863</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>90703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>648558</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>99163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F60F7A-9D00-4F5F-A9F8-808C209371AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1742208" y="15843082"/>
+          <a:ext cx="272695" cy="8460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>639633</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>99163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>282214</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>105357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F77E0C-4E1F-4206-AA7C-94EFEEA06769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2005978" y="17559473"/>
+          <a:ext cx="325753" cy="6194"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260907</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>621525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>105732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B91E3AC-23EF-4C72-9F2B-1565F0E3FB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2310424" y="19272840"/>
+          <a:ext cx="360618" cy="1133"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107103</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>137949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>145659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B494CF6-5EFE-48A2-A031-DC6A96569B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4889310" y="25967121"/>
+          <a:ext cx="1285518" cy="7710"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416130</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>161939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417334</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>62879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9401BF1F-95EC-4AE5-A897-7B340706D07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7247854" y="30944111"/>
+          <a:ext cx="1204" cy="242527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11310</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>156970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12514</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直線矢印コネクタ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFA957E-99B8-48FB-891F-002C3917D454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7526207" y="30939142"/>
+          <a:ext cx="1204" cy="242527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>287513</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC65AAEF-38C5-41CC-93E7-7988AC609C33}"/>
+        <xdr:cNvPr id="156" name="図 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860E6642-0D88-42B5-AD0A-0B894B32EFB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,8 +2866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="23869650"/>
-          <a:ext cx="7549993" cy="933451"/>
+          <a:off x="687457" y="1565413"/>
+          <a:ext cx="3724795" cy="1209844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2576,25 +2876,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62769F34-B185-4752-914A-09D066A60833}"/>
+        <xdr:cNvPr id="110" name="図 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5117EF7D-4705-4821-9253-CB2481839282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2616,8 +2921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="25412700"/>
-          <a:ext cx="7549993" cy="933451"/>
+          <a:off x="688731" y="17020442"/>
+          <a:ext cx="5929770" cy="778962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2626,34 +2931,634 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D4F79-A392-4F95-87B8-2E8F6D5FA667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="19885269"/>
+          <a:ext cx="5929770" cy="778962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1277C678-8129-4ADF-A218-251B18D6A8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="13987096"/>
+          <a:ext cx="5929770" cy="778962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2B7CC5-BA31-4093-B68F-7DE46A8772BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="11122269"/>
+          <a:ext cx="5929770" cy="778962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EE93D7-CBCC-411F-8AD4-D35C036C22A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="8257442"/>
+          <a:ext cx="5929770" cy="778962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203D4236-5025-424D-ADEF-DDE207852C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="5224096"/>
+          <a:ext cx="5929770" cy="778962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A5EA69-E6C6-422B-8D2E-EE7A7EFD4B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2571750"/>
+          <a:ext cx="5906324" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>130002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0920D86E-C6CA-4DD7-82F9-B3BF102B4DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="18749211"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>130002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="図 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526BD379-B0B6-4794-97EF-C36293D61C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="15851605"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>130002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9F46FE-07F3-49BB-81E8-E4ECF1D4925D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="12783553"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>170447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>130001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5F1E5D-805D-4E50-8CC4-935E0AEE6863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="9885947"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>130002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8E8388-0E2F-45DE-BB93-45DDB0689FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="6817895"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>429142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>130001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECC02B4-9E5A-4E8D-B8EA-9E96BEA4F89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="3920289"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線コネクタ 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FCD069-E6AE-43FA-A78D-400354FE1D5F}"/>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7908B2A-6AC0-4C6F-8698-5AB6516DCF27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="25698450"/>
-          <a:ext cx="510540" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="4572000" y="3105150"/>
+          <a:ext cx="2066925" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2681,92 +3586,43 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="図 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F3164C-CC6B-4185-A074-F9FDC458B13D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="26955750"/>
-          <a:ext cx="7549993" cy="933451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414589</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FA1496-3DF4-4711-ACA1-BC39F90A4253}"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91FFFE2-9E89-4F4A-926A-D87219BDD41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6941820" y="27249120"/>
-          <a:ext cx="655320" cy="3810"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:xfrm flipH="1">
+          <a:off x="1781175" y="3457575"/>
+          <a:ext cx="5014" cy="433138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2786,848 +3642,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6193</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AF534F-73D9-4D25-AF24-BB6CA3D1A45A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="28498800"/>
-          <a:ext cx="7549993" cy="933451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04913CB0-16D2-4322-A770-3DA851D5D2E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7585710" y="28799790"/>
-          <a:ext cx="293370" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>305513</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66804</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="図 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90205035-875D-4A2F-8CB8-C4EBF54F4939}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="3124200"/>
-          <a:ext cx="5106113" cy="924054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1149</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133488</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9459894C-15DA-4EA1-BA10-7A400D721CA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="4495800"/>
-          <a:ext cx="8230749" cy="990738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線コネクタ 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ACB377-355D-4A8F-BE19-05FFA6DB6CA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="2952751"/>
-          <a:ext cx="2200275" cy="9524"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>277221</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B2585B-ED27-4E4B-8929-7CBC16B1284C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="3257550"/>
-          <a:ext cx="7135221" cy="895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276742</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB5C3E0-DDE8-49D9-8393-C3680D64B48C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1371600"/>
-          <a:ext cx="3705742" cy="466790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>505661</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D237DB-ADF8-44B6-B128-24926BA62056}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1885950"/>
-          <a:ext cx="5992061" cy="809738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7908B2A-6AC0-4C6F-8698-5AB6516DCF27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4581525" y="2105025"/>
-          <a:ext cx="2066925" cy="9526"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>605089</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147388</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91FFFE2-9E89-4F4A-926A-D87219BDD41C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1285875" y="3867150"/>
-          <a:ext cx="5014" cy="433138"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>148828</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E97FE14-88C7-4F47-BC9D-189B45B09099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="756047" y="3559969"/>
-          <a:ext cx="77390" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>296271</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0242A5A8-EC9A-46B1-B277-93DED3BE85E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="1390650"/>
-          <a:ext cx="7135221" cy="895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314842</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>65</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49D73D6-84D7-4ACF-87BD-72AD8C25D1F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="561975"/>
-          <a:ext cx="3705742" cy="466790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>20199</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19188</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A3415F-8EC1-4AE4-B6E6-DE5B12FF02A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8248650" y="3829050"/>
-          <a:ext cx="8230749" cy="990738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495943</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47751</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C79656-E2A4-498E-8615-388B59095613}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="2571750"/>
-          <a:ext cx="4610743" cy="905001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>505661</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123938</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA08A988-4519-44F0-8591-E7F96ABA4120}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687457" y="4522304"/>
-          <a:ext cx="6005313" cy="819677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3685,167 +3710,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>277221</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8A272C-8511-4122-8DB6-1CEBAD7DFAB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687457" y="6087717"/>
-          <a:ext cx="7151786" cy="907899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>125249</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>113937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>406858</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>115181</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線コネクタ 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48216C86-752E-47F6-8B96-21A2D6934DBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="812908" y="6302864"/>
-          <a:ext cx="281609" cy="1244"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5971041" cy="807110"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B5D0C4-558D-4921-A8D2-C1795704236D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="4440621"/>
-          <a:ext cx="5971041" cy="807110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3903,63 +3778,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7108946" cy="892190"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC98DC0-FA91-4898-A217-4468531F47F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="5977759"/>
-          <a:ext cx="7108946" cy="892190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>104650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>261624</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3974,8 +3804,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1220390" y="9084469"/>
-          <a:ext cx="154782" cy="0"/>
+          <a:off x="1478255" y="10990722"/>
+          <a:ext cx="156974" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4003,62 +3833,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>683172</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5971041" cy="807110"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA132AEA-5281-4DCD-8867-3A82608DD416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="9906000"/>
-          <a:ext cx="5971041" cy="807110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4116,63 +3901,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7108946" cy="892190"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B7A557-C2F3-46EA-A9EC-780A53D1247E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="8710448"/>
-          <a:ext cx="7108946" cy="892190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>136923</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>245645</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>75197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382568</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>77077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4187,8 +3927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1351360" y="11846719"/>
-          <a:ext cx="154782" cy="0"/>
+          <a:off x="1619250" y="13881434"/>
+          <a:ext cx="136923" cy="1880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4216,62 +3956,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>683172</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5971041" cy="807110"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D83A0F5-DE97-4634-A6CC-5692D9E17AF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="10013156"/>
-          <a:ext cx="5971041" cy="807110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4329,63 +4024,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7108946" cy="892190"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1323C9-E9D8-4760-9569-37C098774D4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="14501813"/>
-          <a:ext cx="7108946" cy="892190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
+      <xdr:colOff>647323</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>73004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>160734</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
+      <xdr:colOff>296089</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>73004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4400,8 +4050,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1881187" y="14787562"/>
-          <a:ext cx="333375" cy="0"/>
+          <a:off x="2020928" y="16947293"/>
+          <a:ext cx="335569" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4429,62 +4079,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>683172</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5971041" cy="807110"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32E4EF3-9C1A-416B-89DE-BBD0C3BB48A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="12775406"/>
-          <a:ext cx="5971041" cy="807110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4542,63 +4147,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>684609</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7108946" cy="892190"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFABD5F6-056A-48B0-8A5E-FAA028F6D829}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="684609" y="14501813"/>
-          <a:ext cx="7108946" cy="892190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:colOff>285123</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>82089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:colOff>618498</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>82089</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4613,7 +4173,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2208609" y="17543858"/>
+          <a:off x="2345531" y="19853984"/>
           <a:ext cx="333375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4642,62 +4202,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>683172</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5971041" cy="807110"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73F6CF2-80EB-447D-BBFF-8AC31BDA0B43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683172" y="15710297"/>
-          <a:ext cx="5971041" cy="807110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4755,6 +4270,166 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283676</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>559572</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89892</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51950F62-2055-4D12-8B9C-63CC706C26C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="970479" y="5026296"/>
+          <a:ext cx="275896" cy="6570"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>664676</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFF1158-4ED5-4FFB-A9DA-8477A076E8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1351479" y="7908861"/>
+          <a:ext cx="142442" cy="1902"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290782</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93078D77-9A05-4432-A96F-C41DCCB1912F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="686803" y="1193132"/>
+          <a:ext cx="3724795" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4764,21 +4439,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400584</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57278</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49134C48-F459-4676-9917-1AEAAF282F09}"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C53BBF-3C10-44AE-A425-A4B927CFC60C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4800,8 +4475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1752600"/>
-          <a:ext cx="3829584" cy="914528"/>
+          <a:off x="685800" y="5695950"/>
+          <a:ext cx="5906324" cy="790685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4814,21 +4489,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10388</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123962</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553A0C5F-3C63-48DA-BF1E-BA33BDD5E4FA}"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A724F76-F691-4A5D-8F5F-B9AC0FB7A5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4837,7 +4512,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4850,8 +4525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="2781300"/>
-          <a:ext cx="6182588" cy="981212"/>
+          <a:off x="685800" y="3467100"/>
+          <a:ext cx="5906324" cy="790685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4863,15 +4538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>84858</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116898</xdr:rowOff>
+      <xdr:colOff>65808</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4886,7 +4561,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770658" y="3241098"/>
+          <a:off x="751608" y="3793548"/>
           <a:ext cx="1715367" cy="6927"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4915,117 +4590,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>429159</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8889690-C585-48CD-9651-B70C87BCFEF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="714375"/>
-          <a:ext cx="3829584" cy="914528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>343613</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5A3E0C-2BC8-476A-87A4-19BCEFDC396E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="2143125"/>
-          <a:ext cx="5106113" cy="924054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5073,15 +4648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>429492</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:colOff>343767</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5096,7 +4671,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="3714750"/>
+          <a:off x="685800" y="4238625"/>
           <a:ext cx="1715367" cy="6927"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5125,62 +4700,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6182588" cy="981212"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8E236F-3148-4200-86E4-A408988B5319}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2952750"/>
-          <a:ext cx="6182588" cy="981212"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>91966</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>269327</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>105104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5238,6 +4768,112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439168</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B74D36A-1867-4B0B-A4D9-0F1269CF88D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1714500"/>
+          <a:ext cx="7297168" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5014</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9848FD-17A2-49C8-B890-BDEF10B661AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="2952750"/>
+          <a:ext cx="5014" cy="433138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6399,21 +6035,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191101</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142943</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372484</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841C4236-D481-47EA-B0C2-E3F04D8B356C}"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082C2435-9E78-4B1B-881A-2D565EF02BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6435,8 +6071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="2057400"/>
-          <a:ext cx="4305901" cy="485843"/>
+          <a:off x="685800" y="4629150"/>
+          <a:ext cx="7230484" cy="1114581"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6449,21 +6085,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>429451</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47727</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>191101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D4C92E-1948-460B-BD01-F2A47AC8CEB8}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841C4236-D481-47EA-B0C2-E3F04D8B356C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6485,8 +6121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="2743200"/>
-          <a:ext cx="5915851" cy="733527"/>
+          <a:off x="685800" y="2057400"/>
+          <a:ext cx="4305901" cy="485843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6499,13 +6135,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5014</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>90238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6555,13 +6191,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>353049</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6605,13 +6241,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>31173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6656,173 +6292,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>144044</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFA581D-67CE-4FF0-BB62-31053FC59E9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="4629150"/>
-          <a:ext cx="8373644" cy="895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>467747</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76378</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4DA120-831D-4F00-93B2-3001536C025A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="5657850"/>
-          <a:ext cx="7325747" cy="1276528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF56722-88B3-461E-8DFE-5B73E1ED72CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="952500" y="6372225"/>
-          <a:ext cx="1809750" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6837,7 +6318,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="6280785"/>
+          <a:off x="2686050" y="5404485"/>
           <a:ext cx="3505200" cy="5715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6871,15 +6352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>86929</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>1204</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6894,7 +6375,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7629525" y="6362700"/>
+          <a:off x="7543800" y="5514975"/>
           <a:ext cx="1204" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6927,15 +6408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>506029</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:colOff>410779</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6950,7 +6431,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7362825" y="6372225"/>
+          <a:off x="7267575" y="5524500"/>
           <a:ext cx="1204" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6983,15 +6464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7006,7 +6487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="6715125"/>
+          <a:off x="657225" y="5810250"/>
           <a:ext cx="2371725" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -7113,15 +6594,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>102291</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>102291</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7136,8 +6617,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514726" y="6553200"/>
-          <a:ext cx="1371600" cy="552450"/>
+          <a:off x="3539574" y="5769665"/>
+          <a:ext cx="1374913" cy="559904"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7238,16 +6719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121341</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7262,8 +6743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="6829425"/>
-          <a:ext cx="1371600" cy="552450"/>
+          <a:off x="6308450" y="5891005"/>
+          <a:ext cx="1162464" cy="562389"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7357,6 +6838,124 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496135</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9610C3-DC82-4992-8B95-200278A4E075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2743200"/>
+          <a:ext cx="5982535" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B953132-BD93-4C16-A726-6EA2257488B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="811283" y="5193196"/>
+          <a:ext cx="1870213" cy="515591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7686,42 +7285,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D285F3E-82C5-45DC-BE9D-412B0C3F35DA}">
-  <dimension ref="B2:B45"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -7729,12 +7328,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7793,287 +7387,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF2BDC7-411B-476D-92D2-4E4B0856E803}">
-  <dimension ref="B2:N166"/>
+  <dimension ref="B2:B177"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Z33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>0</v>
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="8"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="10" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="7"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="5" t="s">
-        <v>19</v>
+      <c r="B67" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="7" t="s">
-        <v>0</v>
+      <c r="B75" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="7"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="7"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" s="5" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="10"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B110" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B137" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B139" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B146" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.15">
@@ -8083,37 +7611,52 @@
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B155" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B156" t="s">
-        <v>0</v>
+      <c r="B156" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B164" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B165" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B166" t="s">
-        <v>41</v>
+      <c r="B166" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B175" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8126,132 +7669,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3F8F3B-7B42-460D-A634-72E4AA908F64}">
-  <dimension ref="B2:M107"/>
+  <dimension ref="B2:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
@@ -8259,34 +7767,49 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>67</v>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
-        <v>71</v>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -8299,98 +7822,90 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F4A05-F7B1-43B7-A7AE-988AAD4459EE}">
-  <dimension ref="B2:N31"/>
+  <dimension ref="B2:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="N12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>80</v>
+      <c r="B27" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8404,7 +7919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B790FF-C23D-493F-A19A-59A7D4A0E3FA}">
   <dimension ref="B2:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -8412,12 +7927,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -8427,27 +7942,27 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
@@ -8457,22 +7972,22 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8488,19 +8003,19 @@
   <dimension ref="B2:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -8510,22 +8025,22 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
@@ -8535,22 +8050,22 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8562,22 +8077,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337CF6D-D2F0-408C-B6F6-12BB6703F9F2}">
-  <dimension ref="B2:M37"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -8587,42 +8102,32 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.15">
-      <c r="M37" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/report/No1_KJBM010_テスト結果.xlsx
+++ b/report/No1_KJBM010_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4963DD-2B81-42B0-830F-382D523F7920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FD598D-8EBC-4924-8B0A-AC08B3F8C532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="4" r:id="rId1"/>
@@ -6463,16 +6463,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6487,13 +6487,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="5810250"/>
-          <a:ext cx="2371725" cy="466725"/>
+          <a:off x="781050" y="5915026"/>
+          <a:ext cx="2371725" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -11596"/>
-            <a:gd name="adj2" fmla="val -84335"/>
+            <a:gd name="adj1" fmla="val -18022"/>
+            <a:gd name="adj2" fmla="val -91478"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -6549,15 +6549,37 @@
             </a:rPr>
             <a:t>1111100202020AAAA0000100300</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ABBBB00CCCCCCDDDDEEEEEFFFFF</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -6594,15 +6616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>102291</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>102291</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>67917</xdr:rowOff>
+      <xdr:colOff>92766</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>153642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6617,8 +6639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3539574" y="5769665"/>
-          <a:ext cx="1374913" cy="559904"/>
+          <a:off x="3521766" y="5640042"/>
+          <a:ext cx="1116909" cy="417858"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7287,7 +7309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D285F3E-82C5-45DC-BE9D-412B0C3F35DA}">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -8079,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337CF6D-D2F0-408C-B6F6-12BB6703F9F2}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8133,26 +8155,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -8310,31 +8318,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8350,4 +8349,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>